--- a/src/app/data/Datenquelle.xlsx
+++ b/src/app/data/Datenquelle.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiLa\Desktop\Delite\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BB1C6F7D-2ABD-47DE-A1D9-B47AE87CAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45867E82-EEA4-4E87-B8BA-F0FCDBCB3DBF}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A884963F-944C-44EC-9166-FE5D6B5C24FC}"/>
+    <workbookView windowWidth="14310" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="72">
   <si>
     <t>02TSBR</t>
   </si>
@@ -257,25 +235,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -283,25 +597,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -350,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -383,26 +983,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -435,23 +1018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,40 +1179,35 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA1208-9DBE-44F5-882C-693932E18BEB}">
-  <dimension ref="A2:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1048576"/>
+      <selection activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.71111111111111" customWidth="1"/>
+    <col min="2" max="2" width="31.8533333333333" customWidth="1"/>
+    <col min="3" max="3" width="5.28444444444444" customWidth="1"/>
+    <col min="4" max="4" width="7.14222222222222" customWidth="1"/>
+    <col min="5" max="5" width="6.85333333333333" customWidth="1"/>
+    <col min="6" max="6" width="6.56888888888889" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21.5688888888889" customWidth="1"/>
+    <col min="9" max="9" width="15.5688888888889" customWidth="1"/>
+    <col min="10" max="10" width="6.28444444444444" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" ht="17" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +1267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>301600</v>
       </c>
@@ -714,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.16700000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -729,12 +1290,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>301600</v>
       </c>
       <c r="D7">
-        <v>0.16700000000000001</v>
+        <v>0.167</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -749,7 +1310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>517300</v>
       </c>
@@ -772,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>517300</v>
       </c>
@@ -792,7 +1353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>126600</v>
       </c>
@@ -815,7 +1376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>126600</v>
       </c>
@@ -823,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -838,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>519400</v>
       </c>
@@ -864,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>519400</v>
       </c>
@@ -890,7 +1451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>519500</v>
       </c>
@@ -916,7 +1477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>519500</v>
       </c>
@@ -942,7 +1503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>520000</v>
       </c>
@@ -976,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.52600000000000002</v>
+        <v>0.526</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -1054,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>0.94699999999999995</v>
+        <v>0.947</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1121,7 +1682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>220200</v>
       </c>
@@ -1144,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>220200</v>
       </c>
@@ -1167,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>220500</v>
       </c>
@@ -1190,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>220500</v>
       </c>
@@ -1213,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>220500</v>
       </c>
@@ -1221,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>0.47399999999999998</v>
+        <v>0.474</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
@@ -1366,7 +1927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>519700</v>
       </c>
@@ -1374,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -1395,7 +1956,7 @@
         <v>45907</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>519700</v>
       </c>
@@ -1424,7 +1985,7 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>519700</v>
       </c>
@@ -1432,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0.13200000000000001</v>
+        <v>0.132</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
@@ -1453,12 +2014,12 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>519700</v>
       </c>
       <c r="D36">
-        <v>0.13200000000000001</v>
+        <v>0.132</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
@@ -1484,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
@@ -1510,7 +2071,7 @@
         <v>518800</v>
       </c>
       <c r="D38">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -1536,7 +2097,7 @@
         <v>519000</v>
       </c>
       <c r="D39">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>
@@ -1562,7 +2123,7 @@
         <v>509000</v>
       </c>
       <c r="D40">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -1690,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>519900</v>
       </c>
@@ -1716,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>519800</v>
       </c>
@@ -1739,12 +2300,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>496000</v>
       </c>
       <c r="D47">
-        <v>0.52600000000000002</v>
+        <v>0.526</v>
       </c>
       <c r="E47" t="s">
         <v>71</v>
@@ -1756,177 +2317,1128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="4:4">
       <c r="D48">
-        <v>32.622999999999998</v>
+        <v>32.623</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="17" customHeight="1" spans="1:2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="2:7">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:8">
+      <c r="A54">
+        <v>301600</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0.167</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:8">
+      <c r="A55">
+        <v>301600</v>
+      </c>
+      <c r="D55">
+        <v>0.167</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:8">
+      <c r="A56">
+        <v>517300</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0.25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:8">
+      <c r="A57">
+        <v>517300</v>
+      </c>
+      <c r="D57">
+        <v>0.25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:8">
+      <c r="A58">
+        <v>126600</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:8">
+      <c r="A59">
+        <v>126600</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0.263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:9">
+      <c r="A60">
+        <v>519400</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:9">
+      <c r="A61">
+        <v>519400</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:9">
+      <c r="A62">
+        <v>519500</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:9">
+      <c r="A63">
+        <v>519500</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:9">
+      <c r="A64">
+        <v>520000</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
+      <c r="A65">
+        <v>520000</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0.526</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:9">
+      <c r="A66">
+        <v>520100</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:9">
+      <c r="A67">
+        <v>520100</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:9">
+      <c r="A68">
+        <v>466500</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>0.947</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:9">
+      <c r="A69">
+        <v>520300</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:9">
+      <c r="A70">
+        <v>404500</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:8">
+      <c r="A71">
+        <v>220200</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:8">
+      <c r="A72">
+        <v>220200</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:8">
+      <c r="A73">
+        <v>220500</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:8">
+      <c r="A74">
+        <v>220500</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:8">
+      <c r="A75">
+        <v>220500</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0.474</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:9">
+      <c r="A76">
+        <v>520400</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:9">
+      <c r="A77">
+        <v>520400</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:9">
+      <c r="A78">
+        <v>520500</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:9">
+      <c r="A79">
+        <v>520500</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:9">
+      <c r="A80">
+        <v>519700</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>0.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:11">
+      <c r="A81">
+        <v>519700</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0.079</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>54</v>
+      </c>
+      <c r="K81" s="1">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:12">
+      <c r="A82">
+        <v>519700</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>0.158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>54</v>
+      </c>
+      <c r="L82" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:12">
+      <c r="A83">
+        <v>519700</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0.132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L83" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:9">
+      <c r="A84">
+        <v>519700</v>
+      </c>
+      <c r="D84">
+        <v>0.132</v>
+      </c>
+      <c r="E84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>518900</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0.263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>60</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>518800</v>
+      </c>
+      <c r="D86">
+        <v>0.263</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>61</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>519000</v>
+      </c>
+      <c r="D87">
+        <v>0.263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>509000</v>
+      </c>
+      <c r="D88">
+        <v>0.263</v>
+      </c>
+      <c r="E88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>63</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>518900</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>0.75</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>60</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>518800</v>
+      </c>
+      <c r="D90">
+        <v>0.75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>61</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>519000</v>
+      </c>
+      <c r="D91">
+        <v>0.75</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>62</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>509000</v>
+      </c>
+      <c r="D92">
+        <v>0.75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>63</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:9">
+      <c r="A93">
+        <v>519900</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>0.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:8">
+      <c r="A94">
+        <v>519800</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:8">
+      <c r="A95">
+        <v>496000</v>
+      </c>
+      <c r="D95">
+        <v>0.526</v>
+      </c>
+      <c r="E95" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="4:4">
+      <c r="D96">
+        <v>32.623</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DA74B76CED5AC5488CB690213C9C94DE" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f8fc742917a3af355111bf3726c6e75a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3f28ae0-7ac1-40e6-afb3-a2db5ad8a849" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9d05307f2bbc6afdd8ccf5ed838f6d7" ns2:_="">
-    <xsd:import namespace="f3f28ae0-7ac1-40e6-afb3-a2db5ad8a849"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3f28ae0-7ac1-40e6-afb3-a2db5ad8a849" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EA55BF-B431-4ACB-8A7A-029444C46BD0}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD26A5C6-C45F-43C8-89D4-43A54A2B5150}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{833686AC-C377-4A94-8D0F-86DECD93784B}"/>
 </file>
--- a/src/app/data/Datenquelle.xlsx
+++ b/src/app/data/Datenquelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="74">
   <si>
     <t>02TSBR</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>VT B</t>
+  </si>
+  <si>
+    <t>03TSBR</t>
+  </si>
+  <si>
+    <t>Baumschule für Bäume BR - 3. Jahr.</t>
   </si>
 </sst>
 </file>
@@ -237,9 +243,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -251,9 +257,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,22 +289,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,16 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +318,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,15 +370,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,43 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,7 +410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +476,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,103 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,17 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,151 +690,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="16.5"/>
@@ -2324,10 +2330,10 @@
     </row>
     <row r="50" customFormat="1" ht="17" customHeight="1" spans="1:2">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="2:7">

--- a/src/app/data/Datenquelle.xlsx
+++ b/src/app/data/Datenquelle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14310" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="74">
   <si>
     <t>02TSBR</t>
   </si>
@@ -243,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -257,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
@@ -264,8 +272,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,17 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +311,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,11 +349,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,32 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +388,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,13 +416,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,79 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +548,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +601,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,32 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,148 +704,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,14 +1193,14 @@
   <sheetPr/>
   <dimension ref="A2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.71111111111111" customWidth="1"/>
-    <col min="2" max="2" width="31.8533333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.06666666666667" customWidth="1"/>
     <col min="3" max="3" width="5.28444444444444" customWidth="1"/>
     <col min="4" max="4" width="7.14222222222222" customWidth="1"/>
     <col min="5" max="5" width="6.85333333333333" customWidth="1"/>
@@ -2336,10 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="2:7">
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
+    <row r="52" customFormat="1" spans="4:7">
       <c r="D52" t="s">
         <v>3</v>
       </c>

--- a/src/app/data/Datenquelle.xlsx
+++ b/src/app/data/Datenquelle.xlsx
@@ -243,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -266,6 +266,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
@@ -273,10 +280,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,8 +295,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -297,7 +311,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,8 +349,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -328,7 +373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,36 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,22 +396,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +410,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +500,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,31 +548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,43 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,49 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,10 +604,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -637,11 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,185 +693,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,7 +1194,7 @@
   <dimension ref="A2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="16.5"/>
